--- a/Сoaxial Сylinders v_1.11/Documents/Different/1. Проверка кода.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/1. Проверка кода.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157B202-0D60-4966-A273-6F07011E5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MUSCL; beta" sheetId="2" r:id="rId1"/>
@@ -16,13 +17,14 @@
     <sheet name="Лист2" sheetId="8" r:id="rId7"/>
     <sheet name="Лист4" sheetId="9" r:id="rId8"/>
     <sheet name="Лист5" sheetId="10" r:id="rId9"/>
+    <sheet name="Лист6" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="132">
   <si>
     <r>
       <t>Uφ</t>
@@ -1148,7 +1150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1277,7 +1279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2070,13 +2072,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2544,24 +2559,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,6 +2570,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2615,6 +2663,66 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2657,117 +2765,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2816,15 +2813,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2844,18 +2862,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2879,15 +2885,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2897,13 +2894,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2916,6 +2913,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2924,237 +2942,7 @@
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3249,7 +3037,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3329,7 +3117,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B26-42F4-B417-0082449BC00E}"/>
             </c:ext>
@@ -3378,7 +3166,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B26-42F4-B417-0082449BC00E}"/>
             </c:ext>
@@ -3449,7 +3237,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3529,7 +3317,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7764-4064-8505-96304BB47320}"/>
             </c:ext>
@@ -3578,7 +3366,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7764-4064-8505-96304BB47320}"/>
             </c:ext>
@@ -3649,7 +3437,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3729,7 +3517,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CF43-42DB-9D4E-6E9A0E7A0EC8}"/>
             </c:ext>
@@ -3778,7 +3566,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CF43-42DB-9D4E-6E9A0E7A0EC8}"/>
             </c:ext>
@@ -3849,7 +3637,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3929,7 +3717,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0AA-493D-B684-4FAE9093D2E9}"/>
             </c:ext>
@@ -3978,7 +3766,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0AA-493D-B684-4FAE9093D2E9}"/>
             </c:ext>
@@ -4049,7 +3837,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4129,7 +3917,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2465-4CED-8021-9F29F59C663E}"/>
             </c:ext>
@@ -4178,7 +3966,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2465-4CED-8021-9F29F59C663E}"/>
             </c:ext>
@@ -4249,7 +4037,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4329,7 +4117,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9750-406E-A407-FA085FD570FF}"/>
             </c:ext>
@@ -4378,7 +4166,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9750-406E-A407-FA085FD570FF}"/>
             </c:ext>
@@ -4449,7 +4237,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4478,7 +4266,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4530,7 +4317,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AF01-41CE-8962-EF12F25F6F48}"/>
             </c:ext>
@@ -4579,7 +4366,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AF01-41CE-8962-EF12F25F6F48}"/>
             </c:ext>
@@ -4635,7 +4422,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4651,7 +4437,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4680,7 +4466,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4732,7 +4517,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CFE-4940-93B0-7D2389B46C20}"/>
             </c:ext>
@@ -4781,7 +4566,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CFE-4940-93B0-7D2389B46C20}"/>
             </c:ext>
@@ -4837,7 +4622,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4853,7 +4637,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4882,7 +4666,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4934,7 +4717,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D201-441C-91A4-B5B0B3A191CD}"/>
             </c:ext>
@@ -4983,7 +4766,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D201-441C-91A4-B5B0B3A191CD}"/>
             </c:ext>
@@ -5039,7 +4822,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5074,7 +4856,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5110,7 +4892,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5146,7 +4928,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +4969,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5225,7 +5007,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5263,7 +5045,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5306,7 +5088,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5126,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5382,7 +5164,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5406,9 +5188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5446,7 +5228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5518,7 +5300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5691,7 +5473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5791,7 +5573,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="174">
+      <c r="A2" s="185">
         <v>22</v>
       </c>
       <c r="B2" s="6">
@@ -5833,36 +5615,36 @@
         <f t="shared" ref="L2:L25" si="5">ABS((I2-J2)/I2)*100</f>
         <v>3.3723034059475925E-13</v>
       </c>
-      <c r="M2" s="177">
+      <c r="M2" s="188">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="N2" s="179">
+      <c r="N2" s="190">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="O2" s="179">
+      <c r="O2" s="190">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1294489597696131</v>
       </c>
-      <c r="P2" s="203">
+      <c r="P2" s="204">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.17714505627851754</v>
       </c>
       <c r="Q2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="196">
+      <c r="R2" s="193">
         <v>3.3595399356690099E-2</v>
       </c>
-      <c r="S2" s="196"/>
+      <c r="S2" s="193"/>
       <c r="T2" s="75">
         <f>1/R2*(T3+T4+T5)</f>
         <v>-0.19877589823901198</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -5902,10 +5684,10 @@
         <f t="shared" si="5"/>
         <v>0.72551978764627878</v>
       </c>
-      <c r="M3" s="178"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="204"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="205"/>
       <c r="Q3" s="27">
         <v>0.45244023302814301</v>
       </c>
@@ -5922,7 +5704,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5962,16 +5744,16 @@
         <f t="shared" si="5"/>
         <v>1.1629029749998882E-2</v>
       </c>
-      <c r="M4" s="178">
+      <c r="M4" s="189">
         <v>-0.35902692542820103</v>
       </c>
-      <c r="N4" s="170">
+      <c r="N4" s="181">
         <v>-1.0914897024077701</v>
       </c>
-      <c r="O4" s="170">
+      <c r="O4" s="181">
         <v>1.0420345935290301</v>
       </c>
-      <c r="P4" s="205">
+      <c r="P4" s="206">
         <v>0.114810566882702</v>
       </c>
       <c r="Q4" s="27">
@@ -5990,7 +5772,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
+      <c r="A5" s="187"/>
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -6030,10 +5812,10 @@
         <f t="shared" si="5"/>
         <v>1.5698969965722449</v>
       </c>
-      <c r="M5" s="201"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="206"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="207"/>
       <c r="Q5" s="28">
         <v>-0.98926814124435303</v>
       </c>
@@ -6050,7 +5832,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="197">
+      <c r="A6" s="198">
         <v>24</v>
       </c>
       <c r="B6" s="4">
@@ -6092,36 +5874,36 @@
         <f t="shared" si="5"/>
         <v>1.0289907452330189E-13</v>
       </c>
-      <c r="M6" s="210">
+      <c r="M6" s="196">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.18139049879196079</v>
       </c>
-      <c r="N6" s="179">
+      <c r="N6" s="190">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.1173271853216982</v>
       </c>
-      <c r="O6" s="179">
+      <c r="O6" s="190">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.9660061480116352</v>
       </c>
-      <c r="P6" s="208">
+      <c r="P6" s="209">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.18139049879196079</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="196">
+      <c r="R6" s="193">
         <v>2.6627499572263999E-2</v>
       </c>
-      <c r="S6" s="196"/>
+      <c r="S6" s="193"/>
       <c r="T6" s="75">
         <f>1/R6*(T7+T8+T9)</f>
         <v>0.18808304853988989</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="198"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="27">
         <v>1</v>
       </c>
@@ -6161,10 +5943,10 @@
         <f t="shared" si="5"/>
         <v>1.432279883851767</v>
       </c>
-      <c r="M7" s="211"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="209"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="210"/>
       <c r="Q7" s="27">
         <v>0.72378501135020201</v>
       </c>
@@ -6181,7 +5963,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="27">
         <v>2</v>
       </c>
@@ -6221,16 +6003,16 @@
         <f t="shared" si="5"/>
         <v>0.80911282783643934</v>
       </c>
-      <c r="M8" s="213">
+      <c r="M8" s="194">
         <v>0.107045965641376</v>
       </c>
-      <c r="N8" s="170">
+      <c r="N8" s="181">
         <v>-1.4426364972369801</v>
       </c>
-      <c r="O8" s="170">
+      <c r="O8" s="181">
         <v>0.67080947092479504</v>
       </c>
-      <c r="P8" s="172">
+      <c r="P8" s="183">
         <v>3.5326281585875897E-2</v>
       </c>
       <c r="Q8" s="27">
@@ -6249,7 +6031,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="28">
         <v>3</v>
       </c>
@@ -6289,10 +6071,10 @@
         <f t="shared" si="5"/>
         <v>0.70789216324199367</v>
       </c>
-      <c r="M9" s="214"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="208"/>
+      <c r="P9" s="211"/>
       <c r="Q9" s="28">
         <v>-0.68918261371289802</v>
       </c>
@@ -6309,7 +6091,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="174">
+      <c r="A10" s="185">
         <v>26</v>
       </c>
       <c r="B10" s="6">
@@ -6351,36 +6133,36 @@
         <f t="shared" si="5"/>
         <v>1.4376115308139643E-13</v>
       </c>
-      <c r="M10" s="210">
+      <c r="M10" s="196">
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.18335935345765342</v>
       </c>
-      <c r="N10" s="179">
+      <c r="N10" s="190">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-1.119777714966725</v>
       </c>
-      <c r="O10" s="179">
+      <c r="O10" s="190">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>0.96355561836660841</v>
       </c>
-      <c r="P10" s="181">
+      <c r="P10" s="192">
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.18335935345765342</v>
       </c>
       <c r="Q10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="196">
+      <c r="R10" s="193">
         <v>2.6392541544123901E-2</v>
       </c>
-      <c r="S10" s="196"/>
+      <c r="S10" s="193"/>
       <c r="T10" s="75">
         <f>1/R10*(T11+T12+T13)</f>
         <v>-0.1911334874233169</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="175"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -6420,10 +6202,10 @@
         <f t="shared" si="5"/>
         <v>0.7838215779396428</v>
       </c>
-      <c r="M11" s="211"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="172"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="183"/>
       <c r="Q11" s="27">
         <v>1.7637427872387802E-2</v>
       </c>
@@ -6440,7 +6222,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="175"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -6480,16 +6262,16 @@
         <f t="shared" si="5"/>
         <v>1.2319190056219949</v>
       </c>
-      <c r="M12" s="213">
+      <c r="M12" s="194">
         <v>-0.104824971018492</v>
       </c>
-      <c r="N12" s="170">
+      <c r="N12" s="181">
         <v>-1.46024818061613</v>
       </c>
-      <c r="O12" s="170">
+      <c r="O12" s="181">
         <v>0.652876492651698</v>
       </c>
-      <c r="P12" s="172">
+      <c r="P12" s="183">
         <v>-6.3455090952697002E-3</v>
       </c>
       <c r="Q12" s="27">
@@ -6508,7 +6290,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="176"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -6548,10 +6330,10 @@
         <f t="shared" si="5"/>
         <v>0.80374351673473854</v>
       </c>
-      <c r="M13" s="215"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="173"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="184"/>
       <c r="Q13" s="28">
         <v>-0.69360879939984899</v>
       </c>
@@ -6568,7 +6350,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="174">
+      <c r="A14" s="185">
         <v>28</v>
       </c>
       <c r="B14" s="6">
@@ -6610,36 +6392,36 @@
         <f t="shared" si="5"/>
         <v>5.4943361466831562E-14</v>
       </c>
-      <c r="M14" s="177">
+      <c r="M14" s="188">
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>3.7302354651390701E-2</v>
       </c>
-      <c r="N14" s="179">
+      <c r="N14" s="190">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-1.2322201399103134</v>
       </c>
-      <c r="O14" s="179">
+      <c r="O14" s="190">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>0.85111319342302016</v>
       </c>
-      <c r="P14" s="181">
+      <c r="P14" s="192">
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>-3.7302354651390701E-2</v>
       </c>
       <c r="Q14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="196">
+      <c r="R14" s="193">
         <v>2.55995896546895E-2</v>
       </c>
-      <c r="S14" s="196"/>
+      <c r="S14" s="193"/>
       <c r="T14" s="75">
         <f>1/R14*(T15+T16+T17)</f>
         <v>5.6805923474184228E-2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -6679,10 +6461,10 @@
         <f t="shared" si="5"/>
         <v>15.241017762524722</v>
       </c>
-      <c r="M15" s="178"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="172"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="183"/>
       <c r="Q15" s="27">
         <v>-0.36645744143242598</v>
       </c>
@@ -6699,7 +6481,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="175"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -6739,16 +6521,16 @@
         <f t="shared" si="5"/>
         <v>12.693444312828831</v>
       </c>
-      <c r="M16" s="178">
+      <c r="M16" s="189">
         <v>-0.25599602913307401</v>
       </c>
-      <c r="N16" s="170">
+      <c r="N16" s="181">
         <v>-1.2419024142499</v>
       </c>
-      <c r="O16" s="170">
+      <c r="O16" s="181">
         <v>0.85538374952637497</v>
       </c>
-      <c r="P16" s="172">
+      <c r="P16" s="183">
         <v>0.347942132695155</v>
       </c>
       <c r="Q16" s="27">
@@ -6767,7 +6549,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="200"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="14">
         <v>3</v>
       </c>
@@ -6807,10 +6589,10 @@
         <f t="shared" si="5"/>
         <v>3.7978270466915527</v>
       </c>
-      <c r="M17" s="202"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="173"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="184"/>
       <c r="Q17" s="28">
         <v>0.96875826977258095</v>
       </c>
@@ -6827,7 +6609,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="174">
+      <c r="A18" s="185">
         <v>54</v>
       </c>
       <c r="B18" s="6">
@@ -6869,36 +6651,36 @@
         <f t="shared" si="5"/>
         <v>7.5054346470546418E-13</v>
       </c>
-      <c r="M18" s="177">
+      <c r="M18" s="188">
         <f>-1/12*C18*D18/(D18*D18+C18*C18)^2</f>
         <v>-2.5222044975306834E-2</v>
       </c>
-      <c r="N18" s="179">
+      <c r="N18" s="190">
         <f>-1/0.96*(1-0.04*(C18*C18-D18*D18)/(C18*C18+D18*D18)^2)</f>
         <v>-1.396649583736314</v>
       </c>
-      <c r="O18" s="179">
+      <c r="O18" s="190">
         <f>1/0.96*(1-0.04*(D18*D18-C18*C18)/(C18*C18+D18*D18)^2)</f>
         <v>0.68668374959701939</v>
       </c>
-      <c r="P18" s="181">
+      <c r="P18" s="192">
         <f>1/12*C18*D18/(C18*C18+D18*D18)^2</f>
         <v>2.5222044975306834E-2</v>
       </c>
       <c r="Q18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="196">
+      <c r="R18" s="193">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S18" s="196"/>
+      <c r="S18" s="193"/>
       <c r="T18" s="75">
         <f>1/R18*(T19+T20+T21)</f>
         <v>-0.10804456298867827</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -6938,10 +6720,10 @@
         <f t="shared" si="5"/>
         <v>1.0982352701840603</v>
       </c>
-      <c r="M19" s="178"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="172"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="183"/>
       <c r="Q19" s="27">
         <v>-0.97492791218182395</v>
       </c>
@@ -6958,7 +6740,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="175"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="2">
         <v>2</v>
       </c>
@@ -6998,16 +6780,16 @@
         <f t="shared" si="5"/>
         <v>189.32564522623034</v>
       </c>
-      <c r="M20" s="168">
+      <c r="M20" s="179">
         <v>-0.28508076834840401</v>
       </c>
-      <c r="N20" s="170">
+      <c r="N20" s="181">
         <v>-1.23675617757671</v>
       </c>
-      <c r="O20" s="170">
+      <c r="O20" s="181">
         <v>0.66058979494532</v>
       </c>
-      <c r="P20" s="172">
+      <c r="P20" s="183">
         <v>-0.22494890238236101</v>
       </c>
       <c r="Q20" s="27">
@@ -7026,7 +6808,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="176"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="3">
         <v>3</v>
       </c>
@@ -7066,10 +6848,10 @@
         <f t="shared" si="5"/>
         <v>47.471908953919247</v>
       </c>
-      <c r="M21" s="169"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="173"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="184"/>
       <c r="Q21" s="28">
         <v>0.79122370800502395</v>
       </c>
@@ -7086,7 +6868,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="174">
+      <c r="A22" s="185">
         <v>65</v>
       </c>
       <c r="B22" s="6">
@@ -7128,36 +6910,36 @@
         <f t="shared" si="5"/>
         <v>5.5293279847705724E-13</v>
       </c>
-      <c r="M22" s="177">
+      <c r="M22" s="188">
         <f>-1/12*C22*D22/(D22*D22+C22*C22)^2</f>
         <v>1.1739570444985466E-2</v>
       </c>
-      <c r="N22" s="179">
+      <c r="N22" s="190">
         <f>-1/0.96*(1-0.04*(C22*C22-D22*D22)/(C22*C22+D22*D22)^2)</f>
         <v>-0.32321186477652114</v>
       </c>
-      <c r="O22" s="179">
+      <c r="O22" s="190">
         <f>1/0.96*(1-0.04*(D22*D22-C22*C22)/(C22*C22+D22*D22)^2)</f>
         <v>1.7601214685568123</v>
       </c>
-      <c r="P22" s="181">
+      <c r="P22" s="192">
         <f>1/12*C22*D22/(C22*C22+D22*D22)^2</f>
         <v>-1.1739570444985466E-2</v>
       </c>
       <c r="Q22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="196">
+      <c r="R22" s="193">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S22" s="196"/>
+      <c r="S22" s="193"/>
       <c r="T22" s="75">
         <f>1/R22*(T23+T24+T25)</f>
         <v>0.3895429356863287</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="175"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="2">
         <v>1</v>
       </c>
@@ -7197,10 +6979,10 @@
         <f t="shared" si="5"/>
         <v>6.0882051645650987</v>
       </c>
-      <c r="M23" s="178"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="172"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="183"/>
       <c r="Q23" s="27">
         <v>-0.97492791218182395</v>
       </c>
@@ -7217,7 +6999,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="175"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="2">
         <v>2</v>
       </c>
@@ -7257,16 +7039,16 @@
         <f t="shared" si="5"/>
         <v>5.5017023450664944</v>
       </c>
-      <c r="M24" s="168">
+      <c r="M24" s="179">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N24" s="170">
+      <c r="N24" s="181">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O24" s="170">
+      <c r="O24" s="181">
         <v>1.49634410244349</v>
       </c>
-      <c r="P24" s="172">
+      <c r="P24" s="183">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q24" s="27">
@@ -7285,7 +7067,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="176"/>
+      <c r="A25" s="187"/>
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -7325,10 +7107,10 @@
         <f t="shared" si="5"/>
         <v>70.433005295552604</v>
       </c>
-      <c r="M25" s="169"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="173"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="184"/>
       <c r="Q25" s="28">
         <v>0.79122370800502395</v>
       </c>
@@ -7345,7 +7127,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="174">
+      <c r="A26" s="185">
         <v>40</v>
       </c>
       <c r="B26" s="6">
@@ -7387,36 +7169,36 @@
         <f t="shared" ref="L26:L57" si="11">ABS((I26-J26)/I26)*100</f>
         <v>1.2677908622990758E-13</v>
       </c>
-      <c r="M26" s="177">
+      <c r="M26" s="188">
         <f>-1/12*C26*D26/(D26*D26+C26*C26)^2</f>
         <v>-1.0712010084713345E-2</v>
       </c>
-      <c r="N26" s="179">
+      <c r="N26" s="190">
         <f>-1/0.96*(1-0.04*(C26*C26-D26*D26)/(C26*C26+D26*D26)^2)</f>
         <v>-0.77543851138881104</v>
       </c>
-      <c r="O26" s="179">
+      <c r="O26" s="190">
         <f>1/0.96*(1-0.04*(D26*D26-C26*C26)/(C26*C26+D26*D26)^2)</f>
         <v>1.3078948219445226</v>
       </c>
-      <c r="P26" s="181">
+      <c r="P26" s="192">
         <f>1/12*C26*D26/(C26*C26+D26*D26)^2</f>
         <v>1.0712010084713345E-2</v>
       </c>
       <c r="Q26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R26" s="196">
+      <c r="R26" s="193">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S26" s="196"/>
+      <c r="S26" s="193"/>
       <c r="T26" s="75">
         <f>1/R26*(T27+T28+T29)</f>
         <v>-0.68947992996743568</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="175"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -7456,10 +7238,10 @@
         <f t="shared" si="11"/>
         <v>0.67638289986923728</v>
       </c>
-      <c r="M27" s="178"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="172"/>
+      <c r="M27" s="189"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="183"/>
       <c r="Q27" s="27">
         <v>-0.97492791218182395</v>
       </c>
@@ -7476,7 +7258,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="175"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -7516,16 +7298,16 @@
         <f t="shared" si="11"/>
         <v>0.58991472309042969</v>
       </c>
-      <c r="M28" s="168">
+      <c r="M28" s="179">
         <v>4.2494947331724502E-3</v>
       </c>
-      <c r="N28" s="170">
+      <c r="N28" s="181">
         <v>-0.72330452341279605</v>
       </c>
-      <c r="O28" s="170">
+      <c r="O28" s="181">
         <v>1.49634410244349</v>
       </c>
-      <c r="P28" s="172">
+      <c r="P28" s="183">
         <v>3.69710590315382E-3</v>
       </c>
       <c r="Q28" s="27">
@@ -7544,7 +7326,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="176"/>
+      <c r="A29" s="187"/>
       <c r="B29" s="3">
         <v>3</v>
       </c>
@@ -7584,10 +7366,10 @@
         <f t="shared" si="11"/>
         <v>0.21526713587012794</v>
       </c>
-      <c r="M29" s="169"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="173"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="184"/>
       <c r="Q29" s="28">
         <v>0.79122370800502395</v>
       </c>
@@ -7604,7 +7386,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="218">
+      <c r="A30" s="164">
         <v>541</v>
       </c>
       <c r="B30" s="58">
@@ -7646,36 +7428,36 @@
         <f t="shared" si="11"/>
         <v>8.4379600867631483E-3</v>
       </c>
-      <c r="M30" s="221">
+      <c r="M30" s="167">
         <f>-1/12*C30*D30/(D30*D30+C30*C30)^2</f>
         <v>-5.4975002363563528E-2</v>
       </c>
-      <c r="N30" s="223">
+      <c r="N30" s="169">
         <f>-1/0.96*(1-0.04*(C30*C30-D30*D30)/(C30*C30+D30*D30)^2)</f>
         <v>-0.95330562940850405</v>
       </c>
-      <c r="O30" s="223">
+      <c r="O30" s="169">
         <f>1/0.96*(1-0.04*(D30*D30-C30*C30)/(C30*C30+D30*D30)^2)</f>
         <v>1.1300277039248292</v>
       </c>
-      <c r="P30" s="225">
+      <c r="P30" s="171">
         <f>1/12*C30*D30/(C30*C30+D30*D30)^2</f>
         <v>5.4975002363563528E-2</v>
       </c>
       <c r="Q30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="227">
+      <c r="R30" s="173">
         <v>2.2071216869002101E-2</v>
       </c>
-      <c r="S30" s="227"/>
+      <c r="S30" s="173"/>
       <c r="T30" s="63">
         <f>1/R30*(T31+T32+T33)</f>
         <v>-0.14638409399961166</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="219"/>
+      <c r="A31" s="165"/>
       <c r="B31" s="64">
         <v>1</v>
       </c>
@@ -7715,10 +7497,10 @@
         <f t="shared" si="11"/>
         <v>1.0374368421133059E-2</v>
       </c>
-      <c r="M31" s="222"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="226"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="172"/>
       <c r="Q31" s="68">
         <v>-0.97492791218182395</v>
       </c>
@@ -7735,7 +7517,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="219"/>
+      <c r="A32" s="165"/>
       <c r="B32" s="64">
         <v>2</v>
       </c>
@@ -7775,16 +7557,16 @@
         <f t="shared" si="11"/>
         <v>1.5704774317678711E-2</v>
       </c>
-      <c r="M32" s="228">
+      <c r="M32" s="174">
         <v>-1.25962993460506E-2</v>
       </c>
-      <c r="N32" s="230">
+      <c r="N32" s="176">
         <v>-0.99529561078374396</v>
       </c>
-      <c r="O32" s="230">
+      <c r="O32" s="176">
         <v>1.08721830086341</v>
       </c>
-      <c r="P32" s="226">
+      <c r="P32" s="172">
         <v>1.1730945975606999E-2</v>
       </c>
       <c r="Q32" s="68">
@@ -7803,7 +7585,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" s="54" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="220"/>
+      <c r="A33" s="166"/>
       <c r="B33" s="69">
         <v>3</v>
       </c>
@@ -7843,10 +7625,10 @@
         <f t="shared" si="11"/>
         <v>2.2994812962997525E-2</v>
       </c>
-      <c r="M33" s="229"/>
-      <c r="N33" s="231"/>
-      <c r="O33" s="231"/>
-      <c r="P33" s="232"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="178"/>
       <c r="Q33" s="73">
         <v>0.79122370800502395</v>
       </c>
@@ -7863,7 +7645,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="174">
+      <c r="A34" s="185">
         <v>364</v>
       </c>
       <c r="B34" s="6">
@@ -7905,19 +7687,19 @@
         <f t="shared" si="11"/>
         <v>8.757841435151098E-2</v>
       </c>
-      <c r="M34" s="177">
+      <c r="M34" s="188">
         <f>-1/12*C34*D34/(D34*D34+C34*C34)^2</f>
         <v>-0.74915312973798254</v>
       </c>
-      <c r="N34" s="179">
+      <c r="N34" s="190">
         <f>-1/0.96*(1-0.04*(C34*C34-D34*D34)/(C34*C34+D34*D34)^2)</f>
         <v>-1.077243536808574</v>
       </c>
-      <c r="O34" s="179">
+      <c r="O34" s="190">
         <f>1/0.96*(1-0.04*(D34*D34-C34*C34)/(C34*C34+D34*D34)^2)</f>
         <v>1.0060897965247595</v>
       </c>
-      <c r="P34" s="181">
+      <c r="P34" s="192">
         <f>1/12*C34*D34/(C34*C34+D34*D34)^2</f>
         <v>0.74915312973798254</v>
       </c>
@@ -7929,7 +7711,7 @@
       <c r="T34" s="75"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -7969,10 +7751,10 @@
         <f t="shared" si="11"/>
         <v>2.4713981783796362</v>
       </c>
-      <c r="M35" s="178"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="172"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="191"/>
+      <c r="P35" s="183"/>
       <c r="Q35" s="32">
         <v>-4.2545420685385204E-3</v>
       </c>
@@ -7981,7 +7763,7 @@
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="175"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -8021,16 +7803,16 @@
         <f t="shared" si="11"/>
         <v>1.9528489641282589</v>
       </c>
-      <c r="M36" s="168">
+      <c r="M36" s="179">
         <v>-0.81932865874933403</v>
       </c>
-      <c r="N36" s="170">
+      <c r="N36" s="181">
         <v>-1.02900896566263</v>
       </c>
-      <c r="O36" s="170">
+      <c r="O36" s="181">
         <v>0.97651165749386404</v>
       </c>
-      <c r="P36" s="172">
+      <c r="P36" s="183">
         <v>0.64829219454167797</v>
       </c>
       <c r="Q36" s="32">
@@ -8041,7 +7823,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="176"/>
+      <c r="A37" s="187"/>
       <c r="B37" s="3">
         <v>3</v>
       </c>
@@ -8081,10 +7863,10 @@
         <f t="shared" si="11"/>
         <v>5.0563743893562583</v>
       </c>
-      <c r="M37" s="169"/>
-      <c r="N37" s="171"/>
-      <c r="O37" s="171"/>
-      <c r="P37" s="173"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="182"/>
+      <c r="O37" s="182"/>
+      <c r="P37" s="184"/>
       <c r="Q37" s="33">
         <v>2.0125580093833398E-3</v>
       </c>
@@ -8093,7 +7875,7 @@
       <c r="T37" s="26"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="174">
+      <c r="A38" s="185">
         <v>1477</v>
       </c>
       <c r="B38" s="6">
@@ -8135,19 +7917,19 @@
         <f t="shared" si="11"/>
         <v>7.2506796530203976</v>
       </c>
-      <c r="M38" s="177">
+      <c r="M38" s="188">
         <f>-1/12*C38*D38/(D38*D38+C38*C38)^2</f>
         <v>-0.89589115662280894</v>
       </c>
-      <c r="N38" s="179">
+      <c r="N38" s="190">
         <f>-1/0.96*(1-0.04*(C38*C38-D38*D38)/(C38*C38+D38*D38)^2)</f>
         <v>-1.2459915106056709</v>
       </c>
-      <c r="O38" s="179">
+      <c r="O38" s="190">
         <f>1/0.96*(1-0.04*(D38*D38-C38*C38)/(C38*C38+D38*D38)^2)</f>
         <v>0.83734182272766244</v>
       </c>
-      <c r="P38" s="181">
+      <c r="P38" s="192">
         <f>1/12*C38*D38/(C38*C38+D38*D38)^2</f>
         <v>0.89589115662280894</v>
       </c>
@@ -8159,7 +7941,7 @@
       <c r="T38" s="75"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="175"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -8199,10 +7981,10 @@
         <f t="shared" si="11"/>
         <v>4.3770827275401603</v>
       </c>
-      <c r="M39" s="178"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="172"/>
+      <c r="M39" s="189"/>
+      <c r="N39" s="191"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="183"/>
       <c r="Q39" s="32">
         <v>-2.0144207752970699E-3</v>
       </c>
@@ -8211,7 +7993,7 @@
       <c r="T39" s="19"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="175"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="2">
         <v>2</v>
       </c>
@@ -8251,16 +8033,16 @@
         <f t="shared" si="11"/>
         <v>3.5540070206130996</v>
       </c>
-      <c r="M40" s="168">
+      <c r="M40" s="179">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N40" s="170">
+      <c r="N40" s="181">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O40" s="170">
+      <c r="O40" s="181">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P40" s="172">
+      <c r="P40" s="183">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q40" s="32">
@@ -8271,7 +8053,7 @@
       <c r="T40" s="19"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176"/>
+      <c r="A41" s="187"/>
       <c r="B41" s="3">
         <v>3</v>
       </c>
@@ -8311,10 +8093,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M41" s="169"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="173"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="184"/>
       <c r="Q41" s="33">
         <v>0</v>
       </c>
@@ -8323,7 +8105,7 @@
       <c r="T41" s="26"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="174">
+      <c r="A42" s="185">
         <v>2852</v>
       </c>
       <c r="B42" s="6">
@@ -8365,19 +8147,19 @@
         <f t="shared" si="11"/>
         <v>0.25179480584294195</v>
       </c>
-      <c r="M42" s="177">
+      <c r="M42" s="188">
         <f>-1/12*C42*D42/(D42*D42+C42*C42)^2</f>
         <v>-0.59325541444884999</v>
       </c>
-      <c r="N42" s="179">
+      <c r="N42" s="190">
         <f>-1/0.96*(1-0.04*(C42*C42-D42*D42)/(C42*C42+D42*D42)^2)</f>
         <v>-1.1022704793938467</v>
       </c>
-      <c r="O42" s="179">
+      <c r="O42" s="190">
         <f>1/0.96*(1-0.04*(D42*D42-C42*C42)/(C42*C42+D42*D42)^2)</f>
         <v>0.98106285393948667</v>
       </c>
-      <c r="P42" s="181">
+      <c r="P42" s="192">
         <f>1/12*C42*D42/(C42*C42+D42*D42)^2</f>
         <v>0.59325541444884999</v>
       </c>
@@ -8389,7 +8171,7 @@
       <c r="T42" s="75"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="175"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="2">
         <v>1</v>
       </c>
@@ -8429,10 +8211,10 @@
         <f t="shared" si="11"/>
         <v>0.84776082712530121</v>
       </c>
-      <c r="M43" s="178"/>
-      <c r="N43" s="180"/>
-      <c r="O43" s="180"/>
-      <c r="P43" s="172"/>
+      <c r="M43" s="189"/>
+      <c r="N43" s="191"/>
+      <c r="O43" s="191"/>
+      <c r="P43" s="183"/>
       <c r="Q43" s="32">
         <v>-1.70347245203076E-3</v>
       </c>
@@ -8441,7 +8223,7 @@
       <c r="T43" s="19"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="175"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
@@ -8481,16 +8263,16 @@
         <f t="shared" si="11"/>
         <v>0.13202000465184724</v>
       </c>
-      <c r="M44" s="168">
+      <c r="M44" s="179">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N44" s="170">
+      <c r="N44" s="181">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O44" s="170">
+      <c r="O44" s="181">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P44" s="172">
+      <c r="P44" s="183">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q44" s="32">
@@ -8501,7 +8283,7 @@
       <c r="T44" s="19"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="176"/>
+      <c r="A45" s="187"/>
       <c r="B45" s="3">
         <v>3</v>
       </c>
@@ -8541,10 +8323,10 @@
         <f t="shared" si="11"/>
         <v>2.8075979279215228E-2</v>
       </c>
-      <c r="M45" s="169"/>
-      <c r="N45" s="171"/>
-      <c r="O45" s="171"/>
-      <c r="P45" s="173"/>
+      <c r="M45" s="180"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="182"/>
+      <c r="P45" s="184"/>
       <c r="Q45" s="33">
         <v>6.0950430441033899E-3</v>
       </c>
@@ -8553,7 +8335,7 @@
       <c r="T45" s="26"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="174">
+      <c r="A46" s="185">
         <v>237</v>
       </c>
       <c r="B46" s="6">
@@ -8595,19 +8377,19 @@
         <f t="shared" si="11"/>
         <v>5.1692699909145672E-3</v>
       </c>
-      <c r="M46" s="177">
+      <c r="M46" s="188">
         <f>-1/12*C46*D46/(D46*D46+C46*C46)^2</f>
         <v>-0.72482274799905011</v>
       </c>
-      <c r="N46" s="179">
+      <c r="N46" s="190">
         <f>-1/0.96*(1-0.04*(C46*C46-D46*D46)/(C46*C46+D46*D46)^2)</f>
         <v>-0.88585197977901009</v>
       </c>
-      <c r="O46" s="179">
+      <c r="O46" s="190">
         <f>1/0.96*(1-0.04*(D46*D46-C46*C46)/(C46*C46+D46*D46)^2)</f>
         <v>1.1974813535543234</v>
       </c>
-      <c r="P46" s="181">
+      <c r="P46" s="192">
         <f>1/12*C46*D46/(C46*C46+D46*D46)^2</f>
         <v>0.72482274799905011</v>
       </c>
@@ -8619,7 +8401,7 @@
       <c r="T46" s="75"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="175"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="2">
         <v>1</v>
       </c>
@@ -8659,10 +8441,10 @@
         <f t="shared" si="11"/>
         <v>0.40224140696394439</v>
       </c>
-      <c r="M47" s="178"/>
-      <c r="N47" s="180"/>
-      <c r="O47" s="180"/>
-      <c r="P47" s="172"/>
+      <c r="M47" s="189"/>
+      <c r="N47" s="191"/>
+      <c r="O47" s="191"/>
+      <c r="P47" s="183"/>
       <c r="Q47" s="32">
         <v>-1.5975050735224101E-3</v>
       </c>
@@ -8671,7 +8453,7 @@
       <c r="T47" s="19"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="175"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="2">
         <v>2</v>
       </c>
@@ -8711,16 +8493,16 @@
         <f t="shared" si="11"/>
         <v>0.29395645400747134</v>
       </c>
-      <c r="M48" s="168">
+      <c r="M48" s="179">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N48" s="170">
+      <c r="N48" s="181">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O48" s="170">
+      <c r="O48" s="181">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P48" s="172">
+      <c r="P48" s="183">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q48" s="32">
@@ -8731,7 +8513,7 @@
       <c r="T48" s="19"/>
     </row>
     <row r="49" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="176"/>
+      <c r="A49" s="187"/>
       <c r="B49" s="3">
         <v>3</v>
       </c>
@@ -8771,10 +8553,10 @@
         <f t="shared" si="11"/>
         <v>2.1894015682650338</v>
       </c>
-      <c r="M49" s="169"/>
-      <c r="N49" s="171"/>
-      <c r="O49" s="171"/>
-      <c r="P49" s="173"/>
+      <c r="M49" s="180"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
+      <c r="P49" s="184"/>
       <c r="Q49" s="33">
         <v>-2.1360094564363799E-3</v>
       </c>
@@ -8783,7 +8565,7 @@
       <c r="T49" s="26"/>
     </row>
     <row r="50" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="188">
+      <c r="A50" s="219">
         <v>265</v>
       </c>
       <c r="B50" s="35">
@@ -8825,19 +8607,19 @@
         <f t="shared" si="11"/>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M50" s="191">
+      <c r="M50" s="222">
         <f>-1/12*C50*D50/(D50*D50+C50*C50)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N50" s="193">
+      <c r="N50" s="224">
         <f>-1/0.96*(1-0.04*(C50*C50-D50*D50)/(C50*C50+D50*D50)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O50" s="193">
+      <c r="O50" s="224">
         <f>1/0.96*(1-0.04*(D50*D50-C50*C50)/(C50*C50+D50*D50)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P50" s="195">
+      <c r="P50" s="226">
         <f>1/12*C50*D50/(C50*C50+D50*D50)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -8849,7 +8631,7 @@
       <c r="T50" s="41"/>
     </row>
     <row r="51" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="189"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="43">
         <v>1</v>
       </c>
@@ -8889,10 +8671,10 @@
         <f t="shared" si="11"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M51" s="192"/>
-      <c r="N51" s="194"/>
-      <c r="O51" s="194"/>
-      <c r="P51" s="186"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="225"/>
+      <c r="O51" s="225"/>
+      <c r="P51" s="217"/>
       <c r="Q51" s="47">
         <v>-1.76483335659508E-3</v>
       </c>
@@ -8901,7 +8683,7 @@
       <c r="T51" s="44"/>
     </row>
     <row r="52" spans="1:23" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="189"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="43">
         <v>2</v>
       </c>
@@ -8941,16 +8723,16 @@
         <f t="shared" si="11"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M52" s="182">
+      <c r="M52" s="213">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N52" s="184">
+      <c r="N52" s="215">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O52" s="184">
+      <c r="O52" s="215">
         <v>1.38140952302927</v>
       </c>
-      <c r="P52" s="186">
+      <c r="P52" s="217">
         <v>0.693161263386181</v>
       </c>
       <c r="Q52" s="47">
@@ -8961,7 +8743,7 @@
       <c r="T52" s="44"/>
     </row>
     <row r="53" spans="1:23" s="42" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="190"/>
+      <c r="A53" s="221"/>
       <c r="B53" s="48">
         <v>3</v>
       </c>
@@ -9001,10 +8783,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M53" s="183"/>
-      <c r="N53" s="185"/>
-      <c r="O53" s="185"/>
-      <c r="P53" s="187"/>
+      <c r="M53" s="214"/>
+      <c r="N53" s="216"/>
+      <c r="O53" s="216"/>
+      <c r="P53" s="218"/>
       <c r="Q53" s="52">
         <v>0</v>
       </c>
@@ -9013,7 +8795,7 @@
       <c r="T53" s="50"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="174">
+      <c r="A54" s="185">
         <v>1419</v>
       </c>
       <c r="B54" s="6">
@@ -9055,19 +8837,19 @@
         <f t="shared" si="11"/>
         <v>73.325989628723903</v>
       </c>
-      <c r="M54" s="177">
+      <c r="M54" s="188">
         <f>-1/12*C54*D54/(D54*D54+C54*C54)^2</f>
         <v>-1.7647392819587937E-2</v>
       </c>
-      <c r="N54" s="179">
+      <c r="N54" s="190">
         <f>-1/0.96*(1-0.04*(C54*C54-D54*D54)/(C54*C54+D54*D54)^2)</f>
         <v>-0.20034423343735036</v>
       </c>
-      <c r="O54" s="179">
+      <c r="O54" s="190">
         <f>1/0.96*(1-0.04*(D54*D54-C54*C54)/(C54*C54+D54*D54)^2)</f>
         <v>1.8829890998959831</v>
       </c>
-      <c r="P54" s="181">
+      <c r="P54" s="192">
         <f>1/12*C54*D54/(C54*C54+D54*D54)^2</f>
         <v>1.7647392819587937E-2</v>
       </c>
@@ -9079,7 +8861,7 @@
       <c r="T54" s="75"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="175"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -9119,10 +8901,10 @@
         <f t="shared" si="11"/>
         <v>5.8082194267989351</v>
       </c>
-      <c r="M55" s="178"/>
-      <c r="N55" s="180"/>
-      <c r="O55" s="180"/>
-      <c r="P55" s="172"/>
+      <c r="M55" s="189"/>
+      <c r="N55" s="191"/>
+      <c r="O55" s="191"/>
+      <c r="P55" s="183"/>
       <c r="Q55" s="32">
         <v>-1.5541388968049301E-3</v>
       </c>
@@ -9131,7 +8913,7 @@
       <c r="T55" s="19"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="175"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -9171,16 +8953,16 @@
         <f t="shared" si="11"/>
         <v>0.59020310655671626</v>
       </c>
-      <c r="M56" s="168">
+      <c r="M56" s="179">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N56" s="170">
+      <c r="N56" s="181">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O56" s="170">
+      <c r="O56" s="181">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P56" s="172">
+      <c r="P56" s="183">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q56" s="32">
@@ -9191,7 +8973,7 @@
       <c r="T56" s="19"/>
     </row>
     <row r="57" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="176"/>
+      <c r="A57" s="187"/>
       <c r="B57" s="14">
         <v>3</v>
       </c>
@@ -9231,10 +9013,10 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="M57" s="169"/>
-      <c r="N57" s="171"/>
-      <c r="O57" s="171"/>
-      <c r="P57" s="173"/>
+      <c r="M57" s="180"/>
+      <c r="N57" s="182"/>
+      <c r="O57" s="182"/>
+      <c r="P57" s="184"/>
       <c r="Q57" s="33">
         <v>0</v>
       </c>
@@ -9299,20 +9081,20 @@
         <f t="shared" si="9"/>
         <v>4.8513512095965501E-2</v>
       </c>
-      <c r="N59" s="216" t="s">
+      <c r="N59" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="216"/>
-      <c r="P59" s="216"/>
-      <c r="Q59" s="216"/>
-      <c r="R59" s="216"/>
-      <c r="S59" s="217" t="s">
+      <c r="O59" s="162"/>
+      <c r="P59" s="162"/>
+      <c r="Q59" s="162"/>
+      <c r="R59" s="162"/>
+      <c r="S59" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="T59" s="217"/>
-      <c r="U59" s="217"/>
-      <c r="V59" s="217"/>
-      <c r="W59" s="217"/>
+      <c r="T59" s="163"/>
+      <c r="U59" s="163"/>
+      <c r="V59" s="163"/>
+      <c r="W59" s="163"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B60" s="19" t="s">
@@ -10248,6 +10030,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M20:M21"/>
     <mergeCell ref="N59:R59"/>
     <mergeCell ref="S59:W59"/>
     <mergeCell ref="A30:A33"/>
@@ -10272,151 +10166,9 @@
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="O40:O41"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L33 K58:L1048576">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:L37">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:L41">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42:L45">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:L49">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:L53">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:L57">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K2:L1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10425,8 +10177,91 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ED0F80-A85D-4395-B99F-111B3BC4CA09}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95">
+        <v>236</v>
+      </c>
+      <c r="B2" s="277">
+        <v>0</v>
+      </c>
+      <c r="C2" s="278">
+        <v>-0.61974999269999997</v>
+      </c>
+      <c r="D2" s="278">
+        <v>-0.59102563750000003</v>
+      </c>
+      <c r="E2" s="279">
+        <f t="shared" ref="E2" si="0">SQRT(D2*D2+C2*C2)</f>
+        <v>0.85638855529130675</v>
+      </c>
+      <c r="F2" s="283">
+        <f t="shared" ref="F2" si="1">1/0.96*(E2-0.04/E2)</f>
+        <v>0.8434174842784834</v>
+      </c>
+      <c r="G2" s="282">
+        <f t="shared" ref="G2" si="2">-F2*D2/E2</f>
+        <v>0.58207381829708704</v>
+      </c>
+      <c r="H2" s="280">
+        <v>-0.53015174978351898</v>
+      </c>
+      <c r="I2" s="282">
+        <f t="shared" ref="I2" si="3">F2*C2/E2</f>
+        <v>-0.61036310737109223</v>
+      </c>
+      <c r="J2" s="281">
+        <v>-4.9892517999644698E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10496,7 +10331,7 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="233">
+      <c r="A2" s="227">
         <v>265</v>
       </c>
       <c r="B2" s="35">
@@ -10538,19 +10373,19 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.4976424782681139</v>
       </c>
-      <c r="M2" s="236">
+      <c r="M2" s="230">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.85423793511527568</v>
       </c>
-      <c r="N2" s="238">
+      <c r="N2" s="232">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.70413118701963817</v>
       </c>
-      <c r="O2" s="238">
+      <c r="O2" s="232">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.3792021463136952</v>
       </c>
-      <c r="P2" s="240">
+      <c r="P2" s="234">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.85423793511527568</v>
       </c>
@@ -10563,7 +10398,7 @@
       <c r="W2" s="42"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="234"/>
+      <c r="A3" s="228"/>
       <c r="B3" s="43">
         <v>1</v>
       </c>
@@ -10603,10 +10438,10 @@
         <f t="shared" si="5"/>
         <v>6.0488565329801416</v>
       </c>
-      <c r="M3" s="237"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="241"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="235"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="42"/>
       <c r="S3" s="42"/>
@@ -10616,7 +10451,7 @@
       <c r="W3" s="42"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="234"/>
+      <c r="A4" s="228"/>
       <c r="B4" s="43">
         <v>2</v>
       </c>
@@ -10656,16 +10491,16 @@
         <f t="shared" si="5"/>
         <v>0.36343018863123316</v>
       </c>
-      <c r="M4" s="242">
+      <c r="M4" s="236">
         <v>-0.83478975574671499</v>
       </c>
-      <c r="N4" s="244">
+      <c r="N4" s="238">
         <v>-0.77058253599049198</v>
       </c>
-      <c r="O4" s="244">
+      <c r="O4" s="238">
         <v>1.38140952302927</v>
       </c>
-      <c r="P4" s="246">
+      <c r="P4" s="240">
         <v>0.693161263386181</v>
       </c>
       <c r="Q4" s="42"/>
@@ -10677,7 +10512,7 @@
       <c r="W4" s="42"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="235"/>
+      <c r="A5" s="229"/>
       <c r="B5" s="48">
         <v>3</v>
       </c>
@@ -10717,10 +10552,10 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M5" s="243"/>
-      <c r="N5" s="245"/>
-      <c r="O5" s="245"/>
-      <c r="P5" s="247"/>
+      <c r="M5" s="237"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="241"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
@@ -10730,7 +10565,7 @@
       <c r="W5" s="42"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="174">
+      <c r="A6" s="185">
         <v>1419</v>
       </c>
       <c r="B6" s="4">
@@ -10772,19 +10607,19 @@
         <f t="shared" si="5"/>
         <v>73.325989628723903</v>
       </c>
-      <c r="M6" s="177">
+      <c r="M6" s="188">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>-1.7647392819587937E-2</v>
       </c>
-      <c r="N6" s="179">
+      <c r="N6" s="190">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.20034423343735036</v>
       </c>
-      <c r="O6" s="179">
+      <c r="O6" s="190">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.8829890998959831</v>
       </c>
-      <c r="P6" s="181">
+      <c r="P6" s="192">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>1.7647392819587937E-2</v>
       </c>
@@ -10797,7 +10632,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="175"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="27">
         <v>1</v>
       </c>
@@ -10837,10 +10672,10 @@
         <f t="shared" si="5"/>
         <v>5.8082194267989351</v>
       </c>
-      <c r="M7" s="178"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="172"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="183"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -10850,7 +10685,7 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="27">
         <v>2</v>
       </c>
@@ -10890,16 +10725,16 @@
         <f t="shared" si="5"/>
         <v>0.59020310655671626</v>
       </c>
-      <c r="M8" s="178">
+      <c r="M8" s="189">
         <v>-0.75102409503844803</v>
       </c>
-      <c r="N8" s="170">
+      <c r="N8" s="181">
         <v>-1.2240644664056901</v>
       </c>
-      <c r="O8" s="170">
+      <c r="O8" s="181">
         <v>0.88608863953621098</v>
       </c>
-      <c r="P8" s="172">
+      <c r="P8" s="183">
         <v>0.83453592960603096</v>
       </c>
       <c r="Q8" s="1"/>
@@ -10911,7 +10746,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="176"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="28">
         <v>3</v>
       </c>
@@ -10951,10 +10786,10 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="202"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="173"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="184"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -11040,20 +10875,20 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="216" t="s">
+      <c r="N11" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="216"/>
-      <c r="P11" s="216"/>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="216"/>
-      <c r="S11" s="217" t="s">
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -12020,6 +11855,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="S11:W11"/>
     <mergeCell ref="A6:A9"/>
@@ -12031,28 +11875,9 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
-  <conditionalFormatting sqref="K10:L30">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L9">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K2:L30">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12061,7 +11886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12152,7 +11977,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="242" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="6">
@@ -12194,23 +12019,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>1.9392032531042902E-13</v>
       </c>
-      <c r="M2" s="259">
+      <c r="M2" s="245">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>0.2874644381839454</v>
       </c>
-      <c r="N2" s="271">
+      <c r="N2" s="247">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.2323469133988534</v>
       </c>
-      <c r="O2" s="250">
+      <c r="O2" s="249">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.85098641993448032</v>
       </c>
-      <c r="P2" s="259">
+      <c r="P2" s="245">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-0.2874644381839454</v>
       </c>
-      <c r="Q2" s="252">
+      <c r="Q2" s="253">
         <v>6.3629380283494004E-3</v>
       </c>
       <c r="R2" s="115" t="s">
@@ -12230,7 +12055,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="270"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
@@ -12270,11 +12095,11 @@
         <f t="shared" si="5"/>
         <v>6.7453890876466378</v>
       </c>
-      <c r="M3" s="260"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="253"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="254"/>
       <c r="R3" s="116">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.20066838043017104</v>
@@ -12297,7 +12122,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="270"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
@@ -12337,19 +12162,19 @@
         <f t="shared" si="5"/>
         <v>10.535141527783992</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="251">
         <v>0.49003311552115603</v>
       </c>
-      <c r="N4" s="214">
+      <c r="N4" s="212">
         <v>-1.1847673396731999</v>
       </c>
-      <c r="O4" s="255">
+      <c r="O4" s="256">
         <v>0.74624297082319102</v>
       </c>
-      <c r="P4" s="261">
+      <c r="P4" s="251">
         <v>-0.211992642771656</v>
       </c>
-      <c r="Q4" s="257"/>
+      <c r="Q4" s="258"/>
       <c r="R4" s="116">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.26780667737880604</v>
@@ -12372,7 +12197,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="270"/>
+      <c r="A5" s="243"/>
       <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
@@ -12412,11 +12237,11 @@
         <f t="shared" si="5"/>
         <v>3468381806624317.5</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="258"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="259"/>
       <c r="R5" s="117">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.21664393425670642</v>
@@ -12439,7 +12264,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="270"/>
+      <c r="A6" s="243"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -12479,23 +12304,23 @@
         <f t="shared" si="5"/>
         <v>3.1190634548571303</v>
       </c>
-      <c r="M6" s="259">
+      <c r="M6" s="245">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.2874644381839454</v>
       </c>
-      <c r="N6" s="271">
+      <c r="N6" s="247">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.2323469133988534</v>
       </c>
-      <c r="O6" s="250">
+      <c r="O6" s="249">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.85098641993448032</v>
       </c>
-      <c r="P6" s="259">
+      <c r="P6" s="245">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.2874644381839454</v>
       </c>
-      <c r="Q6" s="252">
+      <c r="Q6" s="253">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R6" s="124" t="s">
@@ -12513,7 +12338,7 @@
       <c r="V6" s="115"/>
     </row>
     <row r="7" spans="1:22" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="270"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -12553,11 +12378,11 @@
         <f t="shared" si="5"/>
         <v>2.6339972398281795</v>
       </c>
-      <c r="M7" s="260"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="253"/>
+      <c r="M7" s="246"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="250"/>
+      <c r="P7" s="246"/>
+      <c r="Q7" s="254"/>
       <c r="R7" s="109">
         <v>0.68511899206568305</v>
       </c>
@@ -12574,7 +12399,7 @@
       <c r="V7" s="116"/>
     </row>
     <row r="8" spans="1:22" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="270"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -12614,19 +12439,19 @@
         <f t="shared" si="5"/>
         <v>1.2869566819255738</v>
       </c>
-      <c r="M8" s="261">
+      <c r="M8" s="251">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N8" s="214">
+      <c r="N8" s="212">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O8" s="255">
+      <c r="O8" s="256">
         <v>1.1537363051412</v>
       </c>
-      <c r="P8" s="261">
+      <c r="P8" s="251">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q8" s="268"/>
+      <c r="Q8" s="265"/>
       <c r="R8" s="114" t="s">
         <v>71</v>
       </c>
@@ -12642,7 +12467,7 @@
       <c r="V8" s="116"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -12682,11 +12507,11 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M9" s="262"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="256"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="269"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="255"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="266"/>
       <c r="R9" s="110">
         <v>2.1389424385951799E-2</v>
       </c>
@@ -12811,10 +12636,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="266" t="s">
+      <c r="A25" s="263" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="267"/>
+      <c r="B25" s="264"/>
       <c r="C25" s="111" t="s">
         <v>97</v>
       </c>
@@ -12832,7 +12657,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="260" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="125">
@@ -12867,7 +12692,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="264"/>
+      <c r="A27" s="261"/>
       <c r="B27" s="127">
         <v>2</v>
       </c>
@@ -12900,7 +12725,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="264"/>
+      <c r="A28" s="261"/>
       <c r="B28" s="127">
         <v>3</v>
       </c>
@@ -12933,7 +12758,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="265"/>
+      <c r="A29" s="262"/>
       <c r="B29" s="118" t="s">
         <v>105</v>
       </c>
@@ -12963,7 +12788,7 @@
     </row>
     <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="248" t="s">
+      <c r="A31" s="242" t="s">
         <v>106</v>
       </c>
       <c r="B31" s="114" t="s">
@@ -12980,7 +12805,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="249"/>
+      <c r="A32" s="244"/>
       <c r="B32" s="149">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>4.066233509851179E-2</v>
@@ -12998,14 +12823,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -13022,19 +12839,17 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K2:L9">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13044,7 +12859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13128,7 +12943,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="242" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="6">
@@ -13170,23 +12985,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M2" s="259">
+      <c r="M2" s="245">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N2" s="271">
+      <c r="N2" s="247">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O2" s="250">
+      <c r="O2" s="249">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P2" s="259">
+      <c r="P2" s="245">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q2" s="252">
+      <c r="Q2" s="253">
         <v>4.3427807501454701E-3</v>
       </c>
       <c r="R2" s="115" t="s">
@@ -13206,7 +13021,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="270"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
@@ -13246,11 +13061,11 @@
         <f t="shared" si="5"/>
         <v>0.32219626081740982</v>
       </c>
-      <c r="M3" s="260"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="253"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="254"/>
       <c r="R3" s="116">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.25698704275732182</v>
@@ -13273,7 +13088,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="270"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
@@ -13313,19 +13128,19 @@
         <f t="shared" si="5"/>
         <v>1.8865981084411843</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="251">
         <v>5.3318310616940701E-2</v>
       </c>
-      <c r="N4" s="214">
+      <c r="N4" s="212">
         <v>-0.95309232617540096</v>
       </c>
-      <c r="O4" s="255">
+      <c r="O4" s="256">
         <v>1.1537363051412</v>
       </c>
-      <c r="P4" s="261">
+      <c r="P4" s="251">
         <v>1.4888037333078701E-3</v>
       </c>
-      <c r="Q4" s="257"/>
+      <c r="Q4" s="258"/>
       <c r="R4" s="116">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.48488963030579385</v>
@@ -13348,7 +13163,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="270"/>
+      <c r="A5" s="243"/>
       <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
@@ -13388,11 +13203,11 @@
         <f t="shared" si="5"/>
         <v>1.7967280576689948</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="258"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="259"/>
       <c r="R5" s="117">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.44915396297778803</v>
@@ -13415,7 +13230,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="270"/>
+      <c r="A6" s="243"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -13455,23 +13270,23 @@
         <f t="shared" si="5"/>
         <v>8.8683858206967119E-14</v>
       </c>
-      <c r="M6" s="259">
+      <c r="M6" s="245">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>2.5577265057762963E-2</v>
       </c>
-      <c r="N6" s="271">
+      <c r="N6" s="247">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.95147905432174695</v>
       </c>
-      <c r="O6" s="250">
+      <c r="O6" s="249">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.1318542790115866</v>
       </c>
-      <c r="P6" s="259">
+      <c r="P6" s="245">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-2.5577265057762963E-2</v>
       </c>
-      <c r="Q6" s="252">
+      <c r="Q6" s="253">
         <v>-2.3529370910404901E-3</v>
       </c>
       <c r="R6" s="124" t="s">
@@ -13489,7 +13304,7 @@
       <c r="V6" s="115"/>
     </row>
     <row r="7" spans="1:22" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="270"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -13529,11 +13344,11 @@
         <f t="shared" si="5"/>
         <v>0.20868281245301892</v>
       </c>
-      <c r="M7" s="260"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="273"/>
+      <c r="M7" s="246"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="250"/>
+      <c r="P7" s="246"/>
+      <c r="Q7" s="267"/>
       <c r="R7" s="109">
         <v>1.1910306360409</v>
       </c>
@@ -13550,7 +13365,7 @@
       <c r="V7" s="116"/>
     </row>
     <row r="8" spans="1:22" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="270"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -13590,19 +13405,19 @@
         <f t="shared" si="5"/>
         <v>2.1997398620743895E-2</v>
       </c>
-      <c r="M8" s="261">
+      <c r="M8" s="251">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="N8" s="214">
+      <c r="N8" s="212">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="O8" s="255">
+      <c r="O8" s="256">
         <v>1.1344986861228901</v>
       </c>
-      <c r="P8" s="261">
+      <c r="P8" s="251">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="Q8" s="268"/>
+      <c r="Q8" s="265"/>
       <c r="R8" s="114" t="s">
         <v>71</v>
       </c>
@@ -13618,7 +13433,7 @@
       <c r="V8" s="116"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -13658,11 +13473,11 @@
         <f t="shared" si="5"/>
         <v>0.61427071457097293</v>
       </c>
-      <c r="M9" s="262"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="256"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="269"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="255"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="266"/>
       <c r="R9" s="110">
         <v>5.7132752196568798E-2</v>
       </c>
@@ -13787,10 +13602,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="266" t="s">
+      <c r="A25" s="263" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="267"/>
+      <c r="B25" s="264"/>
       <c r="C25" s="111" t="s">
         <v>97</v>
       </c>
@@ -13808,7 +13623,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="260" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="125">
@@ -13839,7 +13654,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="264"/>
+      <c r="A27" s="261"/>
       <c r="B27" s="127">
         <v>2</v>
       </c>
@@ -13868,7 +13683,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="264"/>
+      <c r="A28" s="261"/>
       <c r="B28" s="127">
         <v>3</v>
       </c>
@@ -13897,7 +13712,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="265"/>
+      <c r="A29" s="262"/>
       <c r="B29" s="118" t="s">
         <v>103</v>
       </c>
@@ -13927,7 +13742,7 @@
     </row>
     <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="248" t="s">
+      <c r="A31" s="242" t="s">
         <v>111</v>
       </c>
       <c r="B31" s="114" t="s">
@@ -13944,7 +13759,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="249"/>
+      <c r="A32" s="244"/>
       <c r="B32" s="149">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>0.58174051627358325</v>
@@ -13962,14 +13777,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -13986,19 +13793,17 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K2:L9">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14008,7 +13813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14097,7 +13902,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="242" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="6">
@@ -14139,23 +13944,23 @@
         <f t="shared" ref="L2:L9" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M2" s="259">
+      <c r="M2" s="245">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N2" s="271">
+      <c r="N2" s="247">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O2" s="250">
+      <c r="O2" s="249">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P2" s="259">
+      <c r="P2" s="245">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q2" s="252">
+      <c r="Q2" s="253">
         <v>1.7683012531248901E-4</v>
       </c>
       <c r="R2" s="115" t="s">
@@ -14175,7 +13980,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="270"/>
+      <c r="A3" s="243"/>
       <c r="B3" s="2" t="s">
         <v>89</v>
       </c>
@@ -14215,11 +14020,11 @@
         <f t="shared" si="5"/>
         <v>1.5721501854168734E+16</v>
       </c>
-      <c r="M3" s="260"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="253"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="254"/>
       <c r="R3" s="116">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.22167804809623956</v>
@@ -14242,7 +14047,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="270"/>
+      <c r="A4" s="243"/>
       <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
@@ -14282,19 +14087,19 @@
         <f t="shared" si="5"/>
         <v>5.435138479755218</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="251">
         <v>0.16566277110175201</v>
       </c>
-      <c r="N4" s="214">
+      <c r="N4" s="212">
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O4" s="255">
+      <c r="O4" s="256">
         <v>0.711099224132827</v>
       </c>
-      <c r="P4" s="261">
+      <c r="P4" s="251">
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q4" s="257"/>
+      <c r="Q4" s="258"/>
       <c r="R4" s="116">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.21664393425670642</v>
@@ -14317,7 +14122,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="270"/>
+      <c r="A5" s="243"/>
       <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
@@ -14357,11 +14162,11 @@
         <f t="shared" si="5"/>
         <v>3613139172902892</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="258"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="259"/>
       <c r="R5" s="117">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.17355349564702202</v>
@@ -14384,7 +14189,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="270"/>
+      <c r="A6" s="243"/>
       <c r="B6" s="6">
         <v>0</v>
       </c>
@@ -14424,23 +14229,23 @@
         <f t="shared" si="5"/>
         <v>9.7888034641493457E-13</v>
       </c>
-      <c r="M6" s="259">
+      <c r="M6" s="245">
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>0.33521351471629535</v>
       </c>
-      <c r="N6" s="271">
+      <c r="N6" s="247">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-1.7015530708291557</v>
       </c>
-      <c r="O6" s="250">
+      <c r="O6" s="249">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>0.38178026250417763</v>
       </c>
-      <c r="P6" s="259">
+      <c r="P6" s="245">
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>-0.33521351471629535</v>
       </c>
-      <c r="Q6" s="252">
+      <c r="Q6" s="253">
         <f>Q2</f>
         <v>1.7683012531248901E-4</v>
       </c>
@@ -14459,7 +14264,7 @@
       <c r="V6" s="115"/>
     </row>
     <row r="7" spans="1:22" s="86" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="270"/>
+      <c r="A7" s="243"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -14499,11 +14304,11 @@
         <f t="shared" si="5"/>
         <v>66.89695684978372</v>
       </c>
-      <c r="M7" s="260"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="273"/>
+      <c r="M7" s="246"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="250"/>
+      <c r="P7" s="246"/>
+      <c r="Q7" s="267"/>
       <c r="R7" s="109">
         <v>0.611875477999968</v>
       </c>
@@ -14520,7 +14325,7 @@
       <c r="V7" s="116"/>
     </row>
     <row r="8" spans="1:22" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="270"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -14560,23 +14365,23 @@
         <f t="shared" si="5"/>
         <v>8.5347564087543208</v>
       </c>
-      <c r="M8" s="261">
+      <c r="M8" s="251">
         <f>M4</f>
         <v>0.16566277110175201</v>
       </c>
-      <c r="N8" s="257">
+      <c r="N8" s="258">
         <f>N4</f>
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O8" s="274">
+      <c r="O8" s="268">
         <f>O4</f>
         <v>0.711099224132827</v>
       </c>
-      <c r="P8" s="261">
+      <c r="P8" s="251">
         <f>P4</f>
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q8" s="268"/>
+      <c r="Q8" s="265"/>
       <c r="R8" s="114" t="s">
         <v>71</v>
       </c>
@@ -14592,7 +14397,7 @@
       <c r="V8" s="116"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
+      <c r="A9" s="244"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -14632,11 +14437,11 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="M9" s="262"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="275"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="269"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="259"/>
+      <c r="O9" s="269"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="266"/>
       <c r="R9" s="110">
         <v>1.74564235241703E-2</v>
       </c>
@@ -14761,10 +14566,10 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="266" t="s">
+      <c r="A25" s="263" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="267"/>
+      <c r="B25" s="264"/>
       <c r="C25" s="111" t="s">
         <v>97</v>
       </c>
@@ -14782,7 +14587,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="260" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="125">
@@ -14809,7 +14614,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="264"/>
+      <c r="A27" s="261"/>
       <c r="B27" s="127">
         <v>2</v>
       </c>
@@ -14834,7 +14639,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="264"/>
+      <c r="A28" s="261"/>
       <c r="B28" s="127">
         <v>3</v>
       </c>
@@ -14859,7 +14664,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="265"/>
+      <c r="A29" s="262"/>
       <c r="B29" s="118" t="s">
         <v>103</v>
       </c>
@@ -14885,7 +14690,7 @@
     </row>
     <row r="30" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="248" t="s">
+      <c r="A31" s="242" t="s">
         <v>112</v>
       </c>
       <c r="B31" s="114" t="s">
@@ -14902,7 +14707,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="249"/>
+      <c r="A32" s="244"/>
       <c r="B32" s="149">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>-5.5508505866866488E-2</v>
@@ -14920,14 +14725,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="Q4:Q5"/>
@@ -14944,19 +14741,17 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:L5">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:L9">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L6">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K2:L9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14966,7 +14761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15064,7 +14859,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="185" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="6">
@@ -15124,11 +14919,11 @@
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.12046574900487043</v>
       </c>
-      <c r="R2" s="271">
+      <c r="R2" s="247">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.91908562554715478</v>
       </c>
-      <c r="S2" s="250">
+      <c r="S2" s="249">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1642477077861786</v>
       </c>
@@ -15136,20 +14931,20 @@
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.12046574900487043</v>
       </c>
-      <c r="U2" s="276">
+      <c r="U2" s="272">
         <v>-2.3529370910404901E-3</v>
       </c>
-      <c r="V2" s="277">
+      <c r="V2" s="270">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>0.3178493532196468</v>
       </c>
-      <c r="W2" s="277">
+      <c r="W2" s="270">
         <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>0.13003998869886679</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
@@ -15204,15 +14999,15 @@
         <v>5.2910162952071147E-14</v>
       </c>
       <c r="Q3" s="99"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="251"/>
+      <c r="R3" s="248"/>
+      <c r="S3" s="250"/>
       <c r="T3" s="103"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="271"/>
+      <c r="W3" s="271"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
@@ -15269,28 +15064,28 @@
       <c r="Q4" s="100">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="R4" s="214">
+      <c r="R4" s="212">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="S4" s="255">
+      <c r="S4" s="256">
         <v>1.1344986861228901</v>
       </c>
       <c r="T4" s="104">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="U4" s="268">
+      <c r="U4" s="265">
         <f>M3+M4+M5</f>
         <v>-2.3529370910404974E-3</v>
       </c>
-      <c r="V4" s="277">
+      <c r="V4" s="270">
         <v>7.5368687073901403E-2</v>
       </c>
-      <c r="W4" s="277">
+      <c r="W4" s="270">
         <v>3.2331313633133803E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="200"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -15345,15 +15140,15 @@
         <v>2.8640067368482E-12</v>
       </c>
       <c r="Q5" s="101"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="256"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="257"/>
       <c r="T5" s="105"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="278"/>
-      <c r="W5" s="278"/>
+      <c r="U5" s="266"/>
+      <c r="V5" s="271"/>
+      <c r="W5" s="271"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="185" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="6">
@@ -15411,11 +15206,11 @@
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>-0.39761307687490022</v>
       </c>
-      <c r="R6" s="271">
+      <c r="R6" s="247">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.96225861994314255</v>
       </c>
-      <c r="S6" s="250">
+      <c r="S6" s="249">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.1210747133901908</v>
       </c>
@@ -15423,20 +15218,20 @@
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>0.39761307687490022</v>
       </c>
-      <c r="U6" s="276">
+      <c r="U6" s="272">
         <v>5.5289471330137504E-3</v>
       </c>
-      <c r="V6" s="277">
+      <c r="V6" s="270">
         <f>1/0.96/0.96*(C6-0.08*C6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*C6/(POWER(C6*C6+D6*D6,2)))</f>
         <v>1.8826196159772688E-2</v>
       </c>
-      <c r="W6" s="277">
+      <c r="W6" s="270">
         <f>1/0.96/0.96*(D6-0.08*D6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*D6/(POWER(C6*C6+D6*D6,2)))</f>
         <v>1.5438150570472962E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="175"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -15489,15 +15284,15 @@
         <v>100</v>
       </c>
       <c r="Q7" s="99"/>
-      <c r="R7" s="272"/>
-      <c r="S7" s="251"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="250"/>
       <c r="T7" s="103"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="278"/>
-      <c r="W7" s="278"/>
+      <c r="U7" s="267"/>
+      <c r="V7" s="271"/>
+      <c r="W7" s="271"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
@@ -15552,28 +15347,28 @@
       <c r="Q8" s="100">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="R8" s="214">
+      <c r="R8" s="212">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="S8" s="255">
+      <c r="S8" s="256">
         <v>1.1344986861228901</v>
       </c>
       <c r="T8" s="104">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="U8" s="268">
+      <c r="U8" s="265">
         <f>M7+M8+M9</f>
         <v>5.5289471330137001E-3</v>
       </c>
-      <c r="V8" s="277">
+      <c r="V8" s="270">
         <v>0.14579811590467601</v>
       </c>
-      <c r="W8" s="277">
+      <c r="W8" s="270">
         <v>8.0937587487820595E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="200"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
@@ -15626,15 +15421,15 @@
         <v>100</v>
       </c>
       <c r="Q9" s="101"/>
-      <c r="R9" s="254"/>
-      <c r="S9" s="256"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="257"/>
       <c r="T9" s="105"/>
-      <c r="U9" s="269"/>
-      <c r="V9" s="278"/>
-      <c r="W9" s="278"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="271"/>
+      <c r="W9" s="271"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="185" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="6">
@@ -15692,11 +15487,11 @@
         <f>-1/12*C10*D10/(D10*D10+C10*C10)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="R10" s="271">
+      <c r="R10" s="247">
         <f>-1/0.96*(1-0.04*(C10*C10-D10*D10)/(C10*C10+D10*D10)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="S10" s="250">
+      <c r="S10" s="249">
         <f>1/0.96*(1-0.04*(D10*D10-C10*C10)/(C10*C10+D10*D10)^2)</f>
         <v>1.1294489597696131</v>
       </c>
@@ -15704,20 +15499,20 @@
         <f>1/12*C10*D10/(C10*C10+D10*D10)^2</f>
         <v>0.17714505627851754</v>
       </c>
-      <c r="U10" s="276">
+      <c r="U10" s="272">
         <v>-4.6216095055825798E-3</v>
       </c>
-      <c r="V10" s="277">
+      <c r="V10" s="270">
         <f>1/0.96/0.96*(C10-0.08*C10/(C10*C10+D10*D10)-0.5*0.04*0.04*2*C10/(POWER(C10*C10+D10*D10,2)))</f>
         <v>0.24735454129767298</v>
       </c>
-      <c r="W10" s="277">
+      <c r="W10" s="270">
         <f>1/0.96/0.96*(D10-0.08*D10/(C10*C10+D10*D10)-0.5*0.04*0.04*2*D10/(POWER(C10*C10+D10*D10,2)))</f>
         <v>0.15348524241309838</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="175"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
@@ -15770,15 +15565,15 @@
         <v>100</v>
       </c>
       <c r="Q11" s="99"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="251"/>
+      <c r="R11" s="248"/>
+      <c r="S11" s="250"/>
       <c r="T11" s="103"/>
-      <c r="U11" s="273"/>
-      <c r="V11" s="278"/>
-      <c r="W11" s="278"/>
+      <c r="U11" s="267"/>
+      <c r="V11" s="271"/>
+      <c r="W11" s="271"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="175"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
@@ -15833,28 +15628,28 @@
       <c r="Q12" s="100">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="R12" s="214">
+      <c r="R12" s="212">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="S12" s="255">
+      <c r="S12" s="256">
         <v>1.1344986861228901</v>
       </c>
       <c r="T12" s="104">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="U12" s="268">
+      <c r="U12" s="265">
         <f>M11+M12+M13</f>
         <v>-4.6216095055818945E-3</v>
       </c>
-      <c r="V12" s="277">
+      <c r="V12" s="270">
         <v>0.26502318375103501</v>
       </c>
-      <c r="W12" s="277">
+      <c r="W12" s="270">
         <v>0.193669042946988</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
@@ -15907,15 +15702,15 @@
         <v>100</v>
       </c>
       <c r="Q13" s="101"/>
-      <c r="R13" s="254"/>
-      <c r="S13" s="256"/>
+      <c r="R13" s="255"/>
+      <c r="S13" s="257"/>
       <c r="T13" s="105"/>
-      <c r="U13" s="269"/>
-      <c r="V13" s="278"/>
-      <c r="W13" s="278"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="271"/>
+      <c r="W13" s="271"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="185" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="6">
@@ -15973,11 +15768,11 @@
         <f>-1/12*C14*D14/(D14*D14+C14*C14)^2</f>
         <v>-2.9197288200581158E-2</v>
       </c>
-      <c r="R14" s="271">
+      <c r="R14" s="247">
         <f>-1/0.96*(1-0.04*(C14*C14-D14*D14)/(C14*C14+D14*D14)^2)</f>
         <v>-1.0932185255859852</v>
       </c>
-      <c r="S14" s="250">
+      <c r="S14" s="249">
         <f>1/0.96*(1-0.04*(D14*D14-C14*C14)/(C14*C14+D14*D14)^2)</f>
         <v>0.99011480774734817</v>
       </c>
@@ -15985,20 +15780,20 @@
         <f>1/12*C14*D14/(C14*C14+D14*D14)^2</f>
         <v>2.9197288200581158E-2</v>
       </c>
-      <c r="U14" s="276">
+      <c r="U14" s="272">
         <v>-2.3529370910404901E-3</v>
       </c>
-      <c r="V14" s="277">
+      <c r="V14" s="270">
         <f>1/0.96/0.96*(C14-0.08*C14/(C14*C14+D14*D14)-0.5*0.04*0.04*2*C14/(POWER(C14*C14+D14*D14,2)))</f>
         <v>0.20474948049889674</v>
       </c>
-      <c r="W14" s="277">
+      <c r="W14" s="270">
         <f>1/0.96/0.96*(D14-0.08*D14/(C14*C14+D14*D14)-0.5*0.04*0.04*2*D14/(POWER(C14*C14+D14*D14,2)))</f>
         <v>0.77698250327646345</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
@@ -16051,15 +15846,15 @@
         <v>100</v>
       </c>
       <c r="Q15" s="99"/>
-      <c r="R15" s="272"/>
-      <c r="S15" s="251"/>
+      <c r="R15" s="248"/>
+      <c r="S15" s="250"/>
       <c r="T15" s="103"/>
-      <c r="U15" s="273"/>
-      <c r="V15" s="278"/>
-      <c r="W15" s="278"/>
+      <c r="U15" s="267"/>
+      <c r="V15" s="271"/>
+      <c r="W15" s="271"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="175"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
@@ -16114,28 +15909,28 @@
       <c r="Q16" s="100">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="R16" s="214">
+      <c r="R16" s="212">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="S16" s="255">
+      <c r="S16" s="256">
         <v>1.1344986861228901</v>
       </c>
       <c r="T16" s="104">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="U16" s="268">
+      <c r="U16" s="265">
         <f>M15+M16+M17</f>
         <v>-2.3529370910404974E-3</v>
       </c>
-      <c r="V16" s="277">
+      <c r="V16" s="270">
         <v>0.137911809141127</v>
       </c>
-      <c r="W16" s="277">
+      <c r="W16" s="270">
         <v>0.51568724964624202</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="176"/>
+      <c r="A17" s="187"/>
       <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
@@ -16188,15 +15983,15 @@
         <v>100</v>
       </c>
       <c r="Q17" s="101"/>
-      <c r="R17" s="254"/>
-      <c r="S17" s="256"/>
+      <c r="R17" s="255"/>
+      <c r="S17" s="257"/>
       <c r="T17" s="105"/>
-      <c r="U17" s="269"/>
-      <c r="V17" s="278"/>
-      <c r="W17" s="278"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="271"/>
+      <c r="W17" s="271"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="185" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="6">
@@ -16279,7 +16074,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="175"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
@@ -16340,7 +16135,7 @@
       <c r="W19" s="151"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="175"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
@@ -16416,7 +16211,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="176"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
@@ -16478,6 +16273,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U13"/>
     <mergeCell ref="W14:W15"/>
     <mergeCell ref="W16:W17"/>
     <mergeCell ref="W2:W3"/>
@@ -16494,68 +16318,9 @@
     <mergeCell ref="V10:V11"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
   </mergeCells>
-  <conditionalFormatting sqref="N2:O5">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:O9">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:O17">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O13">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18:O21">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P5">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P21">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="N2:P21">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16565,7 +16330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16659,7 +16424,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="185" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="6">
@@ -16719,11 +16484,11 @@
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>-0.17714505627851754</v>
       </c>
-      <c r="R2" s="271">
+      <c r="R2" s="247">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-0.95388437356372024</v>
       </c>
-      <c r="S2" s="250">
+      <c r="S2" s="249">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>1.1294489597696131</v>
       </c>
@@ -16731,20 +16496,20 @@
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>0.17714505627851754</v>
       </c>
-      <c r="U2" s="276">
+      <c r="U2" s="272">
         <v>-4.6216095055825798E-3</v>
       </c>
-      <c r="V2" s="277">
+      <c r="V2" s="270">
         <f>1/0.96/0.96*(C2-0.08*C2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*C2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>0.24735454129767298</v>
       </c>
-      <c r="W2" s="277">
+      <c r="W2" s="270">
         <f>1/0.96/0.96*(D2-0.08*D2/(C2*C2+D2*D2)-0.5*0.04*0.04*2*D2/(POWER(C2*C2+D2*D2,2)))</f>
         <v>0.15348524241309838</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
@@ -16797,15 +16562,15 @@
         <v>100</v>
       </c>
       <c r="Q3" s="99"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="251"/>
+      <c r="R3" s="248"/>
+      <c r="S3" s="250"/>
       <c r="T3" s="103"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="271"/>
+      <c r="W3" s="271"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
@@ -16860,28 +16625,28 @@
       <c r="Q4" s="100">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="R4" s="214">
+      <c r="R4" s="212">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="S4" s="255">
+      <c r="S4" s="256">
         <v>1.1344986861228901</v>
       </c>
       <c r="T4" s="104">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="U4" s="268">
+      <c r="U4" s="265">
         <f>M3+M4+M5</f>
         <v>-4.6216095055818945E-3</v>
       </c>
-      <c r="V4" s="277">
+      <c r="V4" s="270">
         <v>0.26502318375103501</v>
       </c>
-      <c r="W4" s="277">
+      <c r="W4" s="270">
         <v>0.193669042946988</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
+      <c r="A5" s="187"/>
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
@@ -16934,15 +16699,15 @@
         <v>100</v>
       </c>
       <c r="Q5" s="101"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="256"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="257"/>
       <c r="T5" s="105"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="278"/>
-      <c r="W5" s="278"/>
+      <c r="U5" s="266"/>
+      <c r="V5" s="271"/>
+      <c r="W5" s="271"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="185" t="s">
         <v>119</v>
       </c>
       <c r="B6" s="4">
@@ -17002,11 +16767,11 @@
         <f>-1/12*C6*D6/(D6*D6+C6*C6)^2</f>
         <v>-7.5563461809953048E-2</v>
       </c>
-      <c r="R6" s="271">
+      <c r="R6" s="247">
         <f>-1/0.96*(1-0.04*(C6*C6-D6*D6)/(C6*C6+D6*D6)^2)</f>
         <v>-0.89725036357031118</v>
       </c>
-      <c r="S6" s="250">
+      <c r="S6" s="249">
         <f>1/0.96*(1-0.04*(D6*D6-C6*C6)/(C6*C6+D6*D6)^2)</f>
         <v>1.1860829697630224</v>
       </c>
@@ -17014,20 +16779,20 @@
         <f>1/12*C6*D6/(C6*C6+D6*D6)^2</f>
         <v>7.5563461809953048E-2</v>
       </c>
-      <c r="U6" s="276">
+      <c r="U6" s="272">
         <v>-4.6216095055825798E-3</v>
       </c>
-      <c r="V6" s="277">
+      <c r="V6" s="270">
         <f>1/0.96/0.96*(C6-0.08*C6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*C6/(POWER(C6*C6+D6*D6,2)))</f>
         <v>0.35299328988736034</v>
       </c>
-      <c r="W6" s="277">
+      <c r="W6" s="270">
         <f>1/0.96/0.96*(D6-0.08*D6/(C6*C6+D6*D6)-0.5*0.04*0.04*2*D6/(POWER(C6*C6+D6*D6,2)))</f>
         <v>8.6769043842085017E-2</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="175"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="27" t="s">
         <v>120</v>
       </c>
@@ -17080,15 +16845,15 @@
         <v>100</v>
       </c>
       <c r="Q7" s="99"/>
-      <c r="R7" s="272"/>
-      <c r="S7" s="251"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="250"/>
       <c r="T7" s="103"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="278"/>
-      <c r="W7" s="278"/>
+      <c r="U7" s="267"/>
+      <c r="V7" s="271"/>
+      <c r="W7" s="271"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="27" t="s">
         <v>56</v>
       </c>
@@ -17143,28 +16908,28 @@
       <c r="Q8" s="100">
         <v>-5.6957584114745899E-2</v>
       </c>
-      <c r="R8" s="214">
+      <c r="R8" s="212">
         <v>-0.95759798272257901</v>
       </c>
-      <c r="S8" s="255">
+      <c r="S8" s="256">
         <v>1.1344986861228901</v>
       </c>
       <c r="T8" s="104">
         <v>5.2676185244459398E-2</v>
       </c>
-      <c r="U8" s="268">
+      <c r="U8" s="265">
         <f>M7+M8+M9</f>
         <v>-4.6216095055818945E-3</v>
       </c>
-      <c r="V8" s="277">
+      <c r="V8" s="270">
         <v>0.26502318375103501</v>
       </c>
-      <c r="W8" s="277">
+      <c r="W8" s="270">
         <v>0.193669042946988</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="176"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="28" t="s">
         <v>57</v>
       </c>
@@ -17217,24 +16982,15 @@
         <v>100</v>
       </c>
       <c r="Q9" s="101"/>
-      <c r="R9" s="254"/>
-      <c r="S9" s="256"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="257"/>
       <c r="T9" s="105"/>
-      <c r="U9" s="269"/>
-      <c r="V9" s="278"/>
-      <c r="W9" s="278"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="271"/>
+      <c r="W9" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
@@ -17248,23 +17004,17 @@
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
   </mergeCells>
-  <conditionalFormatting sqref="N2:O5">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P5">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:O9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P9">
+  <conditionalFormatting sqref="N2:P9">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
@@ -17274,7 +17024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17295,18 +17045,18 @@
       <c r="B1" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="157" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="158" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17316,88 +17066,88 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" s="159" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="160" t="s">
+      <c r="H1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="160" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="160" t="s">
+      <c r="J1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="160" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="160" t="s">
+      <c r="M1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="160" t="s">
+      <c r="N1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="160" t="s">
+      <c r="O1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="160" t="s">
+      <c r="P1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="160" t="s">
+      <c r="Q1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="160" t="s">
+      <c r="R1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="160" t="s">
+      <c r="S1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="161" t="s">
+      <c r="T1" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="161" t="s">
+      <c r="U1" s="124" t="s">
         <v>73</v>
       </c>
       <c r="V1" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="162" t="s">
+      <c r="W1" s="85" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="242" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="6">
@@ -17439,23 +17189,23 @@
         <f t="shared" ref="L2:L5" si="5">ABS((I2-J2)/I2)*100</f>
         <v>9.7353790257081132E-14</v>
       </c>
-      <c r="M2" s="259">
+      <c r="M2" s="245">
         <f>-1/12*C2*D2/(D2*D2+C2*C2)^2</f>
         <v>2.3096936483873613E-2</v>
       </c>
-      <c r="N2" s="271">
+      <c r="N2" s="247">
         <f>-1/0.96*(1-0.04*(C2*C2-D2*D2)/(C2*C2+D2*D2)^2)</f>
         <v>-1.1632924425282927</v>
       </c>
-      <c r="O2" s="250">
+      <c r="O2" s="249">
         <f>1/0.96*(1-0.04*(D2*D2-C2*C2)/(C2*C2+D2*D2)^2)</f>
         <v>0.92004089080504081</v>
       </c>
-      <c r="P2" s="259">
+      <c r="P2" s="245">
         <f>1/12*C2*D2/(C2*C2+D2*D2)^2</f>
         <v>-2.3096936483873613E-2</v>
       </c>
-      <c r="Q2" s="276">
+      <c r="Q2" s="272">
         <v>1.7683012531248901E-4</v>
       </c>
       <c r="R2" s="115" t="s">
@@ -17464,38 +17214,38 @@
       <c r="S2" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="279">
+      <c r="T2" s="273">
         <v>0.611875477999968</v>
       </c>
-      <c r="U2" s="279">
+      <c r="U2" s="273">
         <f>SUM(R3:R5)</f>
         <v>0.92751847222167338</v>
       </c>
-      <c r="V2" s="279">
+      <c r="V2" s="273">
         <f>(G2*M2+I2*N2)*U5</f>
         <v>1.8186652151734968E-3</v>
       </c>
-      <c r="W2" s="279">
+      <c r="W2" s="273">
         <f>(G2*O2+I2*P2)*U5</f>
         <v>-1.9324912526994822E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="159" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="270"/>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="243"/>
       <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="157">
+      <c r="C3" s="19">
         <v>-0.18419465681816499</v>
       </c>
-      <c r="D3" s="157">
+      <c r="D3" s="19">
         <v>0.70059725233887304</v>
       </c>
-      <c r="E3" s="157">
+      <c r="E3" s="19">
         <f t="shared" si="0"/>
         <v>0.72440608886531332</v>
       </c>
-      <c r="F3" s="157">
+      <c r="F3" s="19">
         <f t="shared" si="1"/>
         <v>0.69707129317776062</v>
       </c>
@@ -17503,14 +17253,14 @@
         <f t="shared" si="2"/>
         <v>-0.67416086114020035</v>
       </c>
-      <c r="H3" s="157">
+      <c r="H3" s="19">
         <v>-0.67836407069865701</v>
       </c>
       <c r="I3" s="76">
         <f t="shared" si="3"/>
         <v>-0.17724424131468686</v>
       </c>
-      <c r="J3" s="157">
+      <c r="J3" s="19">
         <v>-0.17827483736608499</v>
       </c>
       <c r="K3" s="15">
@@ -17521,11 +17271,11 @@
         <f t="shared" si="5"/>
         <v>0.58145530921276423</v>
       </c>
-      <c r="M3" s="260"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="282"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="276"/>
       <c r="R3" s="116">
         <f>SQRT(POWER((C4-C3),2)+POWER((D4-D3),2))</f>
         <v>0.26721792013934836</v>
@@ -17534,27 +17284,27 @@
         <f>R3/2</f>
         <v>0.13360896006967418</v>
       </c>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="280"/>
-      <c r="W3" s="280"/>
-    </row>
-    <row r="4" spans="1:23" s="159" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="270"/>
+      <c r="T3" s="275"/>
+      <c r="U3" s="275"/>
+      <c r="V3" s="274"/>
+      <c r="W3" s="274"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="243"/>
       <c r="B4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4" s="19">
         <v>-0.101881712889443</v>
       </c>
-      <c r="D4" s="157">
+      <c r="D4" s="19">
         <v>0.446372949595437</v>
       </c>
-      <c r="E4" s="157">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>0.45785226170874971</v>
       </c>
-      <c r="F4" s="157">
+      <c r="F4" s="19">
         <f t="shared" si="1"/>
         <v>0.38592482894742997</v>
       </c>
@@ -17562,14 +17312,14 @@
         <f t="shared" si="2"/>
         <v>-0.37624888774484511</v>
       </c>
-      <c r="H4" s="157">
+      <c r="H4" s="19">
         <v>-0.38302103238056101</v>
       </c>
       <c r="I4" s="76">
         <f t="shared" si="3"/>
         <v>-8.5876353374313957E-2</v>
       </c>
-      <c r="J4" s="157">
+      <c r="J4" s="19">
         <v>-9.4856065818503796E-2</v>
       </c>
       <c r="K4" s="15">
@@ -17580,19 +17330,19 @@
         <f t="shared" si="5"/>
         <v>10.456560032363594</v>
       </c>
-      <c r="M4" s="261">
+      <c r="M4" s="251">
         <v>0.16566277110175201</v>
       </c>
-      <c r="N4" s="214">
+      <c r="N4" s="212">
         <v>-1.4104933914347599</v>
       </c>
-      <c r="O4" s="255">
+      <c r="O4" s="256">
         <v>0.711099224132827</v>
       </c>
-      <c r="P4" s="261">
+      <c r="P4" s="251">
         <v>-0.16558433425369001</v>
       </c>
-      <c r="Q4" s="268"/>
+      <c r="Q4" s="265"/>
       <c r="R4" s="116">
         <f>SQRT(POWER((C5-C4),2)+POWER((D5-D4),2))</f>
         <v>0.30673934925236263</v>
@@ -17601,31 +17351,31 @@
         <f>R4/2</f>
         <v>0.15336967462618131</v>
       </c>
-      <c r="T4" s="161" t="s">
+      <c r="T4" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="167" t="s">
+      <c r="U4" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="280"/>
-      <c r="W4" s="280"/>
-    </row>
-    <row r="5" spans="1:23" s="159" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="249"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="274"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="244"/>
       <c r="B5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="158">
+      <c r="C5" s="26">
         <v>0.15756443292076999</v>
       </c>
-      <c r="D5" s="158">
+      <c r="D5" s="26">
         <v>0.61000890470307401</v>
       </c>
-      <c r="E5" s="158">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>0.6300296932198417</v>
       </c>
-      <c r="F5" s="158">
+      <c r="F5" s="26">
         <f t="shared" si="1"/>
         <v>0.59014648135490499</v>
       </c>
@@ -17633,14 +17383,14 @@
         <f t="shared" si="2"/>
         <v>-0.57139308286548118</v>
       </c>
-      <c r="H5" s="158">
+      <c r="H5" s="26">
         <v>-0.55554837939662405</v>
       </c>
       <c r="I5" s="79">
         <f t="shared" si="3"/>
         <v>0.14759002103481325</v>
       </c>
-      <c r="J5" s="158">
+      <c r="J5" s="26">
         <v>0.13778871594338701</v>
       </c>
       <c r="K5" s="18">
@@ -17651,11 +17401,11 @@
         <f t="shared" si="5"/>
         <v>6.6408995829835433</v>
       </c>
-      <c r="M5" s="262"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="262"/>
-      <c r="Q5" s="269"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="252"/>
+      <c r="Q5" s="266"/>
       <c r="R5" s="117">
         <f>SQRT(POWER((C3-C5),2)+POWER((D3-D5),2))</f>
         <v>0.3535612028299624</v>
@@ -17671,15 +17421,21 @@
         <f>SQRT(U2/2*(U2/2-R3)*(U2/2-R4)*(U2/2-R5))</f>
         <v>3.9713436357785521E-2</v>
       </c>
-      <c r="V5" s="281"/>
-      <c r="W5" s="281"/>
-    </row>
-    <row r="6" spans="1:23" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:23" s="159" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="V5" s="275"/>
+      <c r="W5" s="275"/>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="V2:V5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -17689,12 +17445,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="V2:V5"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:L5">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
